--- a/dane wszystkodlazwierzat.pl.xlsx
+++ b/dane wszystkodlazwierzat.pl.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\piotr\Desktop\od_zera_do_ai\moduł_8\www_context_search\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45BF076C-0EC8-483C-8F65-0E4FEA80D7F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{255593D9-A539-444B-82F4-F410E097D840}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="1140" windowWidth="28800" windowHeight="15370" xr2:uid="{F3C29A1E-69C8-413A-B1BD-81878BE2F247}"/>
+    <workbookView xWindow="-31240" yWindow="760" windowWidth="24000" windowHeight="12670" xr2:uid="{F3C29A1E-69C8-413A-B1BD-81878BE2F247}"/>
   </bookViews>
   <sheets>
     <sheet name="10 kompletnych" sheetId="5" r:id="rId1"/>
@@ -1098,8 +1098,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{484EB74E-1D16-4B21-8F75-30670AC7FC67}">
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
